--- a/va_facility_data_2025-02-20/Richard L. Roudebush Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''Richard%20L.%20Roudebush%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Richard L. Roudebush Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''Richard%20L.%20Roudebush%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R035397c9eb1a4b86b73d27ed492d66a3"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R525cf3b45a64433485700b79ef83c4d7"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R243703b077d6412d80e59a97e226ffea"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R7bad91f75add4fdabe653efae4513a24"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R59e53bd5594d4b82afa89ec68b55d89b"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rca94e3bfadf94d1383474726246b9377"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R6b331c48d7be444f992543aee844a49e"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R16ba9effd8834cf59002e9a48e55fc36"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R1500a0fea9e941acb90a7e13b41205a4"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R45c0343ce3944629829b3bbcf8c7acda"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R0d6883a3072e43d4a5832c82e518bb6f"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R0e0f1eb1ab094052b7a85a2be17d3612"/>
   </x:sheets>
 </x:workbook>
 </file>
